--- a/data/trans_dic/P25D_R_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25D_R_2023-Provincia-trans_dic.xlsx
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.007777543624407491</v>
+        <v>0.007576349645395749</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.004130175009125065</v>
+        <v>0.004211700444765179</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007254131572178306</v>
+        <v>0.008721274136028365</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005222773678761769</v>
+        <v>0.005679445108254872</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04776689247989473</v>
+        <v>0.04869599770683453</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01805976803135154</v>
+        <v>0.02098677760157315</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02588051781190989</v>
+        <v>0.02824673001470687</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>0.007309266245243615</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.009505258162107667</v>
+        <v>0.009505258162107665</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.003102010920134242</v>
+        <v>0.0031032736114859</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001820692056671474</v>
+        <v>0.001872243683963971</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.003828647745261699</v>
+        <v>0.003890164946507608</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0313179262167092</v>
+        <v>0.03253312933182938</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0168922523477863</v>
+        <v>0.01817933342444162</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02035309818376153</v>
+        <v>0.01973878520542717</v>
       </c>
     </row>
     <row r="13">
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001863129173902847</v>
+        <v>0.001971537450237332</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05375421816772073</v>
+        <v>0.05521000482701115</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01254637321297546</v>
+        <v>0.009966962610968848</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02532032588276739</v>
+        <v>0.02620022825617417</v>
       </c>
     </row>
     <row r="16">
@@ -783,7 +783,7 @@
         <v>0.003793138524423573</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.00733587266412564</v>
+        <v>0.007335872664125638</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.005652689317166303</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.00186852545438031</v>
+        <v>0.001961495173545382</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.001905800456307342</v>
+        <v>0.001910104734467061</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01882825195147507</v>
+        <v>0.02186088348499336</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0183875208318192</v>
+        <v>0.01903496239702264</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01321512027270455</v>
+        <v>0.01321568187181302</v>
       </c>
     </row>
     <row r="19">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.006781251489686164</v>
+        <v>0.006781251489686162</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.00334649214516796</v>
@@ -868,10 +868,10 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.02456515995807231</v>
+        <v>0.03382167746082718</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0130132911944137</v>
+        <v>0.01217807398100273</v>
       </c>
     </row>
     <row r="22">
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.005796224641110941</v>
+        <v>0.005978491355692997</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.004394602360975744</v>
+        <v>0.004650133579841293</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.006718021880983328</v>
+        <v>0.006367208165763349</v>
       </c>
     </row>
     <row r="24">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02378770360296558</v>
+        <v>0.02331279682103167</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02171885826549478</v>
+        <v>0.02340039333522774</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01942666431053661</v>
+        <v>0.01931288562149597</v>
       </c>
     </row>
     <row r="25">
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.007969749040977333</v>
+        <v>0.008417462204271867</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.003768550356684457</v>
+        <v>0.003775756983609594</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.007056427084227924</v>
+        <v>0.007265038122989566</v>
       </c>
     </row>
     <row r="27">
@@ -975,13 +975,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03015910136978624</v>
+        <v>0.02941498955679945</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01736337157350952</v>
+        <v>0.01633653795406637</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01968141864201109</v>
+        <v>0.01969991715614826</v>
       </c>
     </row>
     <row r="28">
@@ -999,10 +999,10 @@
         <v>0.01209726462553055</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.006958968628912842</v>
+        <v>0.006958968628912843</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.009455079850977367</v>
+        <v>0.00945507985097737</v>
       </c>
     </row>
     <row r="29">
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.008113522734029804</v>
+        <v>0.008233774452440884</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.004741705413575634</v>
+        <v>0.004617860481097255</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.007409341588647454</v>
+        <v>0.007001526036621513</v>
       </c>
     </row>
     <row r="30">
@@ -1030,13 +1030,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.0182918074504673</v>
+        <v>0.01766016724044937</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.01015542746501573</v>
+        <v>0.01004805443916405</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.01246733929657033</v>
+        <v>0.0123749508699859</v>
       </c>
     </row>
     <row r="31">
@@ -1198,10 +1198,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>2458</v>
+        <v>2395</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>2622</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="8">
@@ -1250,13 +1250,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3849</v>
+        <v>4628</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5626</v>
+        <v>6118</v>
       </c>
     </row>
     <row r="11">
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>25347</v>
+        <v>25840</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9870</v>
+        <v>11469</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>27877</v>
+        <v>30426</v>
       </c>
     </row>
     <row r="12">
@@ -1322,13 +1322,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2574</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="15">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9896</v>
+        <v>10280</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6020</v>
+        <v>6479</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13685</v>
+        <v>13272</v>
       </c>
     </row>
     <row r="16">
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1481</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="19">
@@ -1411,13 +1411,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20058</v>
+        <v>20601</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>5294</v>
+        <v>4206</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20132</v>
+        <v>20832</v>
       </c>
     </row>
     <row r="20">
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="23">
@@ -1483,10 +1483,10 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3872</v>
+        <v>4496</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>4178</v>
+        <v>4325</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>5721</v>
@@ -1554,10 +1554,10 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>6479</v>
+        <v>8920</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6955</v>
+        <v>6509</v>
       </c>
     </row>
     <row r="28">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>4120</v>
+        <v>4250</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3361</v>
+        <v>3557</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>9914</v>
+        <v>9396</v>
       </c>
     </row>
     <row r="31">
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>16909</v>
+        <v>16572</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>16612</v>
+        <v>17898</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>28668</v>
+        <v>28500</v>
       </c>
     </row>
     <row r="32">
@@ -1678,13 +1678,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>6345</v>
+        <v>6701</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3133</v>
+        <v>3139</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>11484</v>
+        <v>11824</v>
       </c>
     </row>
     <row r="35">
@@ -1695,13 +1695,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>24010</v>
+        <v>23418</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>14435</v>
+        <v>13581</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>32031</v>
+        <v>32061</v>
       </c>
     </row>
     <row r="36">
@@ -1750,13 +1750,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>28576</v>
+        <v>28999</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>17677</v>
+        <v>17216</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>53718</v>
+        <v>50761</v>
       </c>
     </row>
     <row r="39">
@@ -1767,13 +1767,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>64423</v>
+        <v>62198</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>37860</v>
+        <v>37460</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>90389</v>
+        <v>89719</v>
       </c>
     </row>
     <row r="40">
